--- a/data/Coralphoto__Metadata/Frozen_platy_amounts.xlsx
+++ b/data/Coralphoto__Metadata/Frozen_platy_amounts.xlsx
@@ -1266,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/data/Coralphoto__Metadata/Frozen_platy_amounts.xlsx
+++ b/data/Coralphoto__Metadata/Frozen_platy_amounts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="162" yWindow="438" windowWidth="27762" windowHeight="17382" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Frozen_platy_amounts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="167">
   <si>
     <t>coral_tag</t>
   </si>
@@ -461,18 +461,12 @@
     <t>KI16aFQ074</t>
   </si>
   <si>
-    <t>KI16aFQ217</t>
-  </si>
-  <si>
     <t>KI16aFQ220</t>
   </si>
   <si>
     <t>KI16aFQ223</t>
   </si>
   <si>
-    <t>KI16aFQ225</t>
-  </si>
-  <si>
     <t>KI16aFQ229</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>KI16aFQ272</t>
   </si>
   <si>
-    <t>KI15bFQ179</t>
-  </si>
-  <si>
     <t>KI15cFQ385</t>
   </si>
   <si>
@@ -531,6 +522,9 @@
   </si>
   <si>
     <t>sds_SampleID</t>
+  </si>
+  <si>
+    <t>This is Porites</t>
   </si>
 </sst>
 </file>
@@ -941,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -965,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.6">
@@ -3154,10 +3148,10 @@
         <v>696</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.6">
@@ -3171,7 +3165,7 @@
         <v>800</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.6">
@@ -3185,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.6">
@@ -3825,7 +3819,7 @@
         <v>1000</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.6">
@@ -3891,7 +3885,7 @@
         <v>900</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.6">
@@ -3933,7 +3927,7 @@
         <v>800</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.6">
@@ -3975,7 +3969,7 @@
         <v>1200</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.6">
@@ -4053,7 +4047,7 @@
         <v>1300</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.6">
@@ -4119,7 +4113,7 @@
         <v>600</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.6">
@@ -4298,7 +4292,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -4312,7 +4306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -4324,7 +4318,7 @@
       </c>
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -4338,7 +4332,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -4352,7 +4346,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -4360,13 +4354,16 @@
         <v>1005</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.6">
+        <v>164</v>
+      </c>
+      <c r="E261" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -4377,10 +4374,10 @@
         <v>15</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -4403,10 +4400,10 @@
         <v>15</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -4414,13 +4411,16 @@
         <v>1013</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.6">
+        <v>164</v>
+      </c>
+      <c r="E265" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -4431,10 +4431,10 @@
         <v>15</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -4445,10 +4445,10 @@
         <v>15</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -4459,10 +4459,10 @@
         <v>15</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -4473,10 +4473,10 @@
         <v>15</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -4487,10 +4487,10 @@
         <v>15</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -4501,10 +4501,10 @@
         <v>15</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>15</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.6">
@@ -4529,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.6">
@@ -4579,7 +4579,7 @@
         <v>15</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.6">
@@ -4593,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.6">
@@ -4619,7 +4619,7 @@
         <v>15</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.6">
@@ -4633,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.6">
@@ -4659,7 +4659,7 @@
         <v>15</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.6">
@@ -4685,7 +4685,7 @@
         <v>650</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.6">
@@ -4746,7 +4746,7 @@
         <v>15</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
